--- a/projeto_integrador/Dados/exemplo.xlsx
+++ b/projeto_integrador/Dados/exemplo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.osorio\Desktop\TOTVS\Development\digital-house\projeto_integrador\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thiagoosorio/Desktop/Projetos/digital-house/projeto_integrador/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B237AF2-3629-744B-920B-26F20B5F92F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exemplo" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>mes_desejado</t>
+    <t>data (YYYY-MM-01)</t>
   </si>
   <si>
-    <t>vendas_sao_carlos_cinco_meses_antes</t>
-  </si>
-  <si>
-    <t>vendas_usp_cinco_meses_antes</t>
-  </si>
-  <si>
-    <t>vendas_total_oito_meses_antes</t>
+    <t>2022-12-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,8 +509,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -547,10 +543,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -836,25 +832,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
